--- a/biology/Zoologie/Friedrich_Georg_Hendel/Friedrich_Georg_Hendel.xlsx
+++ b/biology/Zoologie/Friedrich_Georg_Hendel/Friedrich_Georg_Hendel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Georg Hendel (1874-1936) est un entomologiste autrichien.
 </t>
@@ -513,18 +525,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1908
-Hendel F., 1908. Nouvelle classification des mouches à deux ailes (Diptera L.), d’après un plan tout nouveau par J. G. Meigen, Paris, an VIII (1800 v.s.). Mit einem Kommentar. Verh. Zool.-Bot. Ges.Wien 58: 43-69.
-1910
-Hendel F., 1910. Über die Nomenklatur der Acalyptratengattungen nach Th. Beckers Katalog der paläarktischen Dipteren, Bd. 4. Wien. Ent. Ztg. 29: 307-313.
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hendel F., 1908. Nouvelle classification des mouches à deux ailes (Diptera L.), d’après un plan tout nouveau par J. G. Meigen, Paris, an VIII (1800 v.s.). Mit einem Kommentar. Verh. Zool.-Bot. Ges.Wien 58: 43-69.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Friedrich_Georg_Hendel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Friedrich_Georg_Hendel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hendel F., 1910. Über die Nomenklatur der Acalyptratengattungen nach Th. Beckers Katalog der paläarktischen Dipteren, Bd. 4. Wien. Ent. Ztg. 29: 307-313.
 Hendel F., 1910. Über acalyptrate Musciden. Wiener Entomologische Zeitung.
-Hendel F., 1910. Genera insectorum, D. Wytsrinan (Wien) PL.
-1914
-Hendel F., 1914. Diptera. Fam. Muscaridae, Subfam. Platystominae. Genera Ins. 157, 179 pp., 15 pls.
+Hendel F., 1910. Genera insectorum, D. Wytsrinan (Wien) PL.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Friedrich_Georg_Hendel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Friedrich_Georg_Hendel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hendel F., 1914. Diptera. Fam. Muscaridae, Subfam. Platystominae. Genera Ins. 157, 179 pp., 15 pls.
 Hendel F., 1914. Die Arten der Platystominen. Abh. Zool.-Bot. Ges. Wien 8 (1): 1-409, 4 pls.
-Hendel F., 1914. Die Bohrfliegen Südamerikas. Abh. Ber. K. Zool. Anthrop.-Ethn. Mus. Dresden (1912) 14 (3): 1-84, 4 pls..
-1936
-Hendel F., 1936. Ergebnisse einer zoologischen Sammelreise nach Brasilien, insbesondere in das Amazonasgebiet, ausgeführt von Dr. H. Zerny. X. Teil. Diptera: Muscidae  Muscidae acalyptratae (excl. Chloropidae). Annalen des Naturhistorischen Museums in Wien, 47. Bd. (1936), pages 61-106.
+Hendel F., 1914. Die Bohrfliegen Südamerikas. Abh. Ber. K. Zool. Anthrop.-Ethn. Mus. Dresden (1912) 14 (3): 1-84, 4 pls..</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Friedrich_Georg_Hendel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Friedrich_Georg_Hendel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hendel F., 1936. Ergebnisse einer zoologischen Sammelreise nach Brasilien, insbesondere in das Amazonasgebiet, ausgeführt von Dr. H. Zerny. X. Teil. Diptera: Muscidae  Muscidae acalyptratae (excl. Chloropidae). Annalen des Naturhistorischen Museums in Wien, 47. Bd. (1936), pages 61-106.
 Hendel F., 1936. Diptera. Handbuch der Zoologie.</t>
         </is>
       </c>
